--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.34</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,395 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6051</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3344</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3125</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1336</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
+      <c r="D6" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -874,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -904,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>73.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -942,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1036,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.12</t>
+          <t>74.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.1319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1130,36 +848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.54</t>
+          <t>62.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1319</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +912,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1224,36 +942,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.78</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1628</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1262,36 +980,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.30</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1305,112 +1023,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.47</v>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
+++ b/数据整理/stocks/A股/上证主板/600761-安徽合力.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -566,6 +583,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -690,100 +1105,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -848,36 +1169,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.12</t>
+          <t>74.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.1319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -886,6 +1207,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1017,7 +1432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
